--- a/files/excel/excel2016_complexformulas_practice.xlsx
+++ b/files/excel/excel2016_complexformulas_practice.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D30FBE0-F685-4DD3-8D9F-8CE0F74C8291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7905" windowHeight="4425"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catering Invoice" sheetId="1" r:id="rId1"/>
     <sheet name="Catering Subtotal" sheetId="2" r:id="rId2"/>
-    <sheet name="Challenge" sheetId="5" r:id="rId3"/>
+    <sheet name="Tantangan" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -178,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -407,7 +408,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -456,7 +463,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -505,7 +518,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -799,10 +818,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -913,7 +932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -996,11 +1015,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
